--- a/data/background_vars.xlsx
+++ b/data/background_vars.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="772" windowWidth="24271" windowHeight="13313"/>
+    <workbookView xWindow="-118" yWindow="1217" windowWidth="24271" windowHeight="13313"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -300,9 +300,6 @@
     <t xml:space="preserve"> -999. No responde (no leer)</t>
   </si>
   <si>
-    <t>DDP03. ¿Cuál  es   su   estado   civil  o conyugal actual?</t>
-  </si>
-  <si>
     <t>1. Menos de $220.000 mensuales líquidos</t>
   </si>
   <si>
@@ -535,6 +532,9 @@
   </si>
   <si>
     <t>socioeconomico</t>
+  </si>
+  <si>
+    <t>¿Cuál  es   su   estado   civil  o conyugal actual?</t>
   </si>
 </sst>
 </file>
@@ -864,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B157" workbookViewId="0">
-      <selection activeCell="D180" sqref="D180"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -892,7 +892,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -906,7 +906,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -914,12 +914,12 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -930,18 +930,18 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C7" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -949,12 +949,12 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -962,13 +962,13 @@
         <v>62</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -976,7 +976,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -984,7 +984,7 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -992,7 +992,7 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1000,7 +1000,7 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1008,7 +1008,7 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1016,12 +1016,12 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1029,13 +1029,13 @@
         <v>62</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1043,7 +1043,7 @@
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1051,12 +1051,12 @@
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1064,82 +1064,82 @@
         <v>82</v>
       </c>
       <c r="B22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" t="s">
         <v>113</v>
       </c>
-      <c r="C22" t="s">
-        <v>114</v>
-      </c>
       <c r="D22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1147,82 +1147,82 @@
         <v>82</v>
       </c>
       <c r="B32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" t="s">
         <v>123</v>
       </c>
-      <c r="C32" t="s">
-        <v>124</v>
-      </c>
       <c r="D32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1230,19 +1230,19 @@
         <v>82</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B43" s="4"/>
       <c r="D43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1250,13 +1250,13 @@
         <v>62</v>
       </c>
       <c r="B44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C44" t="s">
         <v>34</v>
       </c>
       <c r="D44" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1264,7 +1264,7 @@
         <v>27</v>
       </c>
       <c r="D45" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1272,7 +1272,7 @@
         <v>36</v>
       </c>
       <c r="D46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1280,15 +1280,15 @@
         <v>29</v>
       </c>
       <c r="D47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D48" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1296,7 +1296,7 @@
         <v>30</v>
       </c>
       <c r="D49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1304,7 +1304,7 @@
         <v>31</v>
       </c>
       <c r="D50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1312,7 +1312,7 @@
         <v>37</v>
       </c>
       <c r="D51" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1320,15 +1320,15 @@
         <v>32</v>
       </c>
       <c r="D52" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D53" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1336,7 +1336,7 @@
         <v>33</v>
       </c>
       <c r="D54" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1344,12 +1344,12 @@
         <v>26</v>
       </c>
       <c r="D55" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1357,13 +1357,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C57" t="s">
         <v>38</v>
       </c>
       <c r="D57" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1371,7 +1371,7 @@
         <v>39</v>
       </c>
       <c r="D58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1379,7 +1379,7 @@
         <v>40</v>
       </c>
       <c r="D59" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1387,7 +1387,7 @@
         <v>41</v>
       </c>
       <c r="D60" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1395,12 +1395,12 @@
         <v>17</v>
       </c>
       <c r="D61" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1408,18 +1408,18 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D63" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1427,13 +1427,13 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C65" t="s">
         <v>12</v>
       </c>
       <c r="D65" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1441,7 +1441,7 @@
         <v>13</v>
       </c>
       <c r="D66" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1449,7 +1449,7 @@
         <v>45</v>
       </c>
       <c r="D67" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1457,12 +1457,12 @@
         <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D69" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1470,13 +1470,13 @@
         <v>62</v>
       </c>
       <c r="B70" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C70" t="s">
         <v>48</v>
       </c>
       <c r="D70" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -1484,7 +1484,7 @@
         <v>49</v>
       </c>
       <c r="D71" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -1492,7 +1492,7 @@
         <v>51</v>
       </c>
       <c r="D72" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -1500,7 +1500,7 @@
         <v>50</v>
       </c>
       <c r="D73" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -1508,12 +1508,12 @@
         <v>11</v>
       </c>
       <c r="D74" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D75" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -1521,13 +1521,13 @@
         <v>62</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C76" s="3">
         <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -1535,7 +1535,7 @@
         <v>1000</v>
       </c>
       <c r="D77" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -1543,7 +1543,7 @@
         <v>52</v>
       </c>
       <c r="D78" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -1551,13 +1551,13 @@
         <v>53</v>
       </c>
       <c r="D79" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C80" s="3"/>
       <c r="D80" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -1565,13 +1565,13 @@
         <v>62</v>
       </c>
       <c r="B81" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C81" t="s">
         <v>54</v>
       </c>
       <c r="D81" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1579,7 +1579,7 @@
         <v>55</v>
       </c>
       <c r="D82" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -1587,7 +1587,7 @@
         <v>56</v>
       </c>
       <c r="D83" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -1595,7 +1595,7 @@
         <v>45</v>
       </c>
       <c r="D84" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -1603,12 +1603,12 @@
         <v>14</v>
       </c>
       <c r="D85" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D86" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -1616,13 +1616,13 @@
         <v>62</v>
       </c>
       <c r="B87" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C87" t="s">
         <v>34</v>
       </c>
       <c r="D87" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -1630,7 +1630,7 @@
         <v>27</v>
       </c>
       <c r="D88" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -1638,7 +1638,7 @@
         <v>28</v>
       </c>
       <c r="D89" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -1646,7 +1646,7 @@
         <v>29</v>
       </c>
       <c r="D90" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -1654,7 +1654,7 @@
         <v>35</v>
       </c>
       <c r="D91" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -1662,7 +1662,7 @@
         <v>30</v>
       </c>
       <c r="D92" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -1670,7 +1670,7 @@
         <v>31</v>
       </c>
       <c r="D93" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -1678,7 +1678,7 @@
         <v>59</v>
       </c>
       <c r="D94" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -1686,15 +1686,15 @@
         <v>32</v>
       </c>
       <c r="D95" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D96" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -1702,7 +1702,7 @@
         <v>33</v>
       </c>
       <c r="D97" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -1710,7 +1710,7 @@
         <v>57</v>
       </c>
       <c r="D98" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -1718,12 +1718,12 @@
         <v>58</v>
       </c>
       <c r="D99" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D100" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -1731,18 +1731,18 @@
         <v>62</v>
       </c>
       <c r="B101" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C101" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D101" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D102" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="30.15" x14ac:dyDescent="0.3">
@@ -1750,13 +1750,13 @@
         <v>62</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C103" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D103" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -1764,7 +1764,7 @@
         <v>46</v>
       </c>
       <c r="D104" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -1772,7 +1772,7 @@
         <v>60</v>
       </c>
       <c r="D105" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -1780,7 +1780,7 @@
         <v>47</v>
       </c>
       <c r="D106" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -1788,12 +1788,12 @@
         <v>11</v>
       </c>
       <c r="D107" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D108" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -1804,15 +1804,15 @@
         <v>81</v>
       </c>
       <c r="C109" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D109" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D110" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -1820,24 +1820,24 @@
         <v>82</v>
       </c>
       <c r="B111" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C111" t="s">
         <v>63</v>
       </c>
       <c r="D111" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C112" t="s">
         <v>64</v>
       </c>
       <c r="D112" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="113" spans="3:4" x14ac:dyDescent="0.3">
@@ -1845,7 +1845,7 @@
         <v>65</v>
       </c>
       <c r="D113" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="114" spans="3:4" x14ac:dyDescent="0.3">
@@ -1853,7 +1853,7 @@
         <v>66</v>
       </c>
       <c r="D114" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="115" spans="3:4" x14ac:dyDescent="0.3">
@@ -1861,7 +1861,7 @@
         <v>67</v>
       </c>
       <c r="D115" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="116" spans="3:4" x14ac:dyDescent="0.3">
@@ -1869,7 +1869,7 @@
         <v>68</v>
       </c>
       <c r="D116" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="117" spans="3:4" x14ac:dyDescent="0.3">
@@ -1877,7 +1877,7 @@
         <v>69</v>
       </c>
       <c r="D117" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="118" spans="3:4" x14ac:dyDescent="0.3">
@@ -1885,7 +1885,7 @@
         <v>70</v>
       </c>
       <c r="D118" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="119" spans="3:4" x14ac:dyDescent="0.3">
@@ -1893,7 +1893,7 @@
         <v>71</v>
       </c>
       <c r="D119" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="120" spans="3:4" x14ac:dyDescent="0.3">
@@ -1901,7 +1901,7 @@
         <v>72</v>
       </c>
       <c r="D120" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="121" spans="3:4" x14ac:dyDescent="0.3">
@@ -1909,7 +1909,7 @@
         <v>73</v>
       </c>
       <c r="D121" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="122" spans="3:4" x14ac:dyDescent="0.3">
@@ -1917,7 +1917,7 @@
         <v>74</v>
       </c>
       <c r="D122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="123" spans="3:4" x14ac:dyDescent="0.3">
@@ -1925,7 +1925,7 @@
         <v>75</v>
       </c>
       <c r="D123" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="124" spans="3:4" x14ac:dyDescent="0.3">
@@ -1933,7 +1933,7 @@
         <v>76</v>
       </c>
       <c r="D124" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="125" spans="3:4" x14ac:dyDescent="0.3">
@@ -1941,7 +1941,7 @@
         <v>77</v>
       </c>
       <c r="D125" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="126" spans="3:4" x14ac:dyDescent="0.3">
@@ -1949,7 +1949,7 @@
         <v>78</v>
       </c>
       <c r="D126" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="127" spans="3:4" x14ac:dyDescent="0.3">
@@ -1957,7 +1957,7 @@
         <v>79</v>
       </c>
       <c r="D127" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="128" spans="3:4" x14ac:dyDescent="0.3">
@@ -1965,12 +1965,12 @@
         <v>80</v>
       </c>
       <c r="D128" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D129" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -1978,18 +1978,18 @@
         <v>82</v>
       </c>
       <c r="B130" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C130" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D130" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D131" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -1997,168 +1997,168 @@
         <v>82</v>
       </c>
       <c r="B132" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C132" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D132" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C133" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D133" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C134" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D134" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C135" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D135" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C136" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D136" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C137" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D137" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C138" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D138" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C139" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D139" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C140" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D140" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C141" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D141" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C142" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D142" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C143" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D143" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C144" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D144" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C145" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D145" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C146" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D146" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C147" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D147" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C148" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D148" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C149" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D149" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C150" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D150" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C151" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D151" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -2166,7 +2166,7 @@
         <v>88</v>
       </c>
       <c r="D152" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -2174,12 +2174,12 @@
         <v>89</v>
       </c>
       <c r="D153" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D154" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
@@ -2193,7 +2193,7 @@
         <v>84</v>
       </c>
       <c r="D155" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
@@ -2201,7 +2201,7 @@
         <v>85</v>
       </c>
       <c r="D156" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
@@ -2209,7 +2209,7 @@
         <v>86</v>
       </c>
       <c r="D157" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
@@ -2217,7 +2217,7 @@
         <v>87</v>
       </c>
       <c r="D158" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
@@ -2225,7 +2225,7 @@
         <v>88</v>
       </c>
       <c r="D159" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
@@ -2233,23 +2233,23 @@
         <v>89</v>
       </c>
       <c r="D160" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="161" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D161" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="163" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B163" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C163" t="s">
         <v>15</v>
       </c>
       <c r="D163" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="164" spans="2:4" x14ac:dyDescent="0.3">
@@ -2257,7 +2257,7 @@
         <v>16</v>
       </c>
       <c r="D164" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="165" spans="2:4" x14ac:dyDescent="0.3">
@@ -2265,23 +2265,23 @@
         <v>17</v>
       </c>
       <c r="D165" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D166" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="167" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C167" t="s">
         <v>18</v>
       </c>
       <c r="D167" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="168" spans="2:4" x14ac:dyDescent="0.3">
@@ -2289,7 +2289,7 @@
         <v>19</v>
       </c>
       <c r="D168" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.3">
@@ -2297,7 +2297,7 @@
         <v>20</v>
       </c>
       <c r="D169" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.3">
@@ -2305,7 +2305,7 @@
         <v>21</v>
       </c>
       <c r="D170" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.3">
@@ -2313,23 +2313,23 @@
         <v>22</v>
       </c>
       <c r="D171" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C172" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D172" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C173" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D173" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.3">
@@ -2337,7 +2337,7 @@
         <v>23</v>
       </c>
       <c r="D174" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.3">
@@ -2345,7 +2345,7 @@
         <v>24</v>
       </c>
       <c r="D175" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.3">
@@ -2353,7 +2353,7 @@
         <v>25</v>
       </c>
       <c r="D176" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
@@ -2361,12 +2361,12 @@
         <v>26</v>
       </c>
       <c r="D177" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D178" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="30.15" x14ac:dyDescent="0.3">
@@ -2374,24 +2374,24 @@
         <v>62</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C179" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D179" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B180" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C180" s="3">
         <v>2</v>
       </c>
       <c r="D180" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
@@ -2399,7 +2399,7 @@
         <v>3</v>
       </c>
       <c r="D181" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
@@ -2407,7 +2407,7 @@
         <v>4</v>
       </c>
       <c r="D182" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
@@ -2415,7 +2415,7 @@
         <v>5</v>
       </c>
       <c r="D183" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
@@ -2423,7 +2423,7 @@
         <v>6</v>
       </c>
       <c r="D184" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
@@ -2431,7 +2431,7 @@
         <v>7</v>
       </c>
       <c r="D185" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
@@ -2439,7 +2439,7 @@
         <v>8</v>
       </c>
       <c r="D186" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
@@ -2447,23 +2447,23 @@
         <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C188" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D188" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C189" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D189" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
@@ -2471,7 +2471,7 @@
         <v>26</v>
       </c>
       <c r="D190" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/data/background_vars.xlsx
+++ b/data/background_vars.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="1217" windowWidth="24271" windowHeight="13313"/>
+    <workbookView xWindow="-118" yWindow="1663" windowWidth="24271" windowHeight="13313"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="170">
   <si>
     <t>Registre Sexo</t>
   </si>
@@ -498,9 +498,6 @@
     <t>Número de personas</t>
   </si>
   <si>
-    <t xml:space="preserve">En nuestra sociedad hay grupos que tienden a ubicarse en los niveles más altos y grupos que tienden a ubicarse en los niveles más bajos.  </t>
-  </si>
-  <si>
     <t>A continuación se presenta una escala que va desde el nivel más bajo al más alto. ¿Dónde se ubicaría Ud.?</t>
   </si>
   <si>
@@ -535,6 +532,12 @@
   </si>
   <si>
     <t>¿Cuál  es   su   estado   civil  o conyugal actual?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En nuestra sociedad hay grupos que tienden a ubicarse en los niveles más altos y grupos que tienden a ubicarse en los </t>
+  </si>
+  <si>
+    <t xml:space="preserve">niveles más bajos.  </t>
   </si>
 </sst>
 </file>
@@ -864,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="B185" sqref="B185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -892,7 +895,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -906,7 +909,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -914,12 +917,12 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -933,7 +936,7 @@
         <v>136</v>
       </c>
       <c r="D6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -941,7 +944,7 @@
         <v>137</v>
       </c>
       <c r="D7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -949,12 +952,12 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -962,13 +965,13 @@
         <v>62</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -976,7 +979,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -984,7 +987,7 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -992,7 +995,7 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1000,7 +1003,7 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1008,7 +1011,7 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1016,12 +1019,12 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1035,7 +1038,7 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1043,7 +1046,7 @@
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1051,12 +1054,12 @@
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1070,7 +1073,7 @@
         <v>113</v>
       </c>
       <c r="D22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1078,7 +1081,7 @@
         <v>114</v>
       </c>
       <c r="D23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1086,7 +1089,7 @@
         <v>115</v>
       </c>
       <c r="D24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1094,7 +1097,7 @@
         <v>116</v>
       </c>
       <c r="D25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1102,7 +1105,7 @@
         <v>117</v>
       </c>
       <c r="D26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1110,7 +1113,7 @@
         <v>118</v>
       </c>
       <c r="D27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1118,7 +1121,7 @@
         <v>119</v>
       </c>
       <c r="D28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1126,7 +1129,7 @@
         <v>120</v>
       </c>
       <c r="D29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1134,12 +1137,12 @@
         <v>121</v>
       </c>
       <c r="D30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1153,7 +1156,7 @@
         <v>123</v>
       </c>
       <c r="D32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1161,7 +1164,7 @@
         <v>124</v>
       </c>
       <c r="D33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1169,7 +1172,7 @@
         <v>125</v>
       </c>
       <c r="D34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1177,7 +1180,7 @@
         <v>126</v>
       </c>
       <c r="D35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1185,7 +1188,7 @@
         <v>127</v>
       </c>
       <c r="D36" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1193,7 +1196,7 @@
         <v>128</v>
       </c>
       <c r="D37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1201,7 +1204,7 @@
         <v>129</v>
       </c>
       <c r="D38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1209,7 +1212,7 @@
         <v>130</v>
       </c>
       <c r="D39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1217,12 +1220,12 @@
         <v>131</v>
       </c>
       <c r="D40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1236,13 +1239,13 @@
         <v>155</v>
       </c>
       <c r="D42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B43" s="4"/>
       <c r="D43" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1256,7 +1259,7 @@
         <v>34</v>
       </c>
       <c r="D44" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1264,7 +1267,7 @@
         <v>27</v>
       </c>
       <c r="D45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1272,7 +1275,7 @@
         <v>36</v>
       </c>
       <c r="D46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1280,15 +1283,15 @@
         <v>29</v>
       </c>
       <c r="D47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D48" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1296,7 +1299,7 @@
         <v>30</v>
       </c>
       <c r="D49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1304,7 +1307,7 @@
         <v>31</v>
       </c>
       <c r="D50" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1312,7 +1315,7 @@
         <v>37</v>
       </c>
       <c r="D51" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1320,15 +1323,15 @@
         <v>32</v>
       </c>
       <c r="D52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1336,7 +1339,7 @@
         <v>33</v>
       </c>
       <c r="D54" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1344,12 +1347,12 @@
         <v>26</v>
       </c>
       <c r="D55" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1363,7 +1366,7 @@
         <v>38</v>
       </c>
       <c r="D57" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1371,7 +1374,7 @@
         <v>39</v>
       </c>
       <c r="D58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1379,7 +1382,7 @@
         <v>40</v>
       </c>
       <c r="D59" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1387,7 +1390,7 @@
         <v>41</v>
       </c>
       <c r="D60" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1395,12 +1398,12 @@
         <v>17</v>
       </c>
       <c r="D61" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1414,12 +1417,12 @@
         <v>154</v>
       </c>
       <c r="D63" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1433,7 +1436,7 @@
         <v>12</v>
       </c>
       <c r="D65" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1441,7 +1444,7 @@
         <v>13</v>
       </c>
       <c r="D66" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1449,7 +1452,7 @@
         <v>45</v>
       </c>
       <c r="D67" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1457,12 +1460,12 @@
         <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D69" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1476,7 +1479,7 @@
         <v>48</v>
       </c>
       <c r="D70" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -1484,7 +1487,7 @@
         <v>49</v>
       </c>
       <c r="D71" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -1492,7 +1495,7 @@
         <v>51</v>
       </c>
       <c r="D72" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -1500,7 +1503,7 @@
         <v>50</v>
       </c>
       <c r="D73" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -1508,12 +1511,12 @@
         <v>11</v>
       </c>
       <c r="D74" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D75" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -1527,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -1535,7 +1538,7 @@
         <v>1000</v>
       </c>
       <c r="D77" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -1543,7 +1546,7 @@
         <v>52</v>
       </c>
       <c r="D78" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -1551,13 +1554,13 @@
         <v>53</v>
       </c>
       <c r="D79" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C80" s="3"/>
       <c r="D80" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -1571,7 +1574,7 @@
         <v>54</v>
       </c>
       <c r="D81" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1579,7 +1582,7 @@
         <v>55</v>
       </c>
       <c r="D82" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -1587,7 +1590,7 @@
         <v>56</v>
       </c>
       <c r="D83" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -1595,7 +1598,7 @@
         <v>45</v>
       </c>
       <c r="D84" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -1603,12 +1606,12 @@
         <v>14</v>
       </c>
       <c r="D85" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D86" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -1622,7 +1625,7 @@
         <v>34</v>
       </c>
       <c r="D87" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -1630,7 +1633,7 @@
         <v>27</v>
       </c>
       <c r="D88" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -1638,7 +1641,7 @@
         <v>28</v>
       </c>
       <c r="D89" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -1646,7 +1649,7 @@
         <v>29</v>
       </c>
       <c r="D90" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -1654,7 +1657,7 @@
         <v>35</v>
       </c>
       <c r="D91" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -1662,7 +1665,7 @@
         <v>30</v>
       </c>
       <c r="D92" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -1670,7 +1673,7 @@
         <v>31</v>
       </c>
       <c r="D93" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -1678,7 +1681,7 @@
         <v>59</v>
       </c>
       <c r="D94" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -1686,7 +1689,7 @@
         <v>32</v>
       </c>
       <c r="D95" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -1694,7 +1697,7 @@
         <v>140</v>
       </c>
       <c r="D96" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -1702,7 +1705,7 @@
         <v>33</v>
       </c>
       <c r="D97" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -1710,7 +1713,7 @@
         <v>57</v>
       </c>
       <c r="D98" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -1718,12 +1721,12 @@
         <v>58</v>
       </c>
       <c r="D99" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D100" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -1737,12 +1740,12 @@
         <v>154</v>
       </c>
       <c r="D101" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D102" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="30.15" x14ac:dyDescent="0.3">
@@ -1753,10 +1756,10 @@
         <v>153</v>
       </c>
       <c r="C103" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D103" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -1764,7 +1767,7 @@
         <v>46</v>
       </c>
       <c r="D104" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -1772,7 +1775,7 @@
         <v>60</v>
       </c>
       <c r="D105" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -1780,7 +1783,7 @@
         <v>47</v>
       </c>
       <c r="D106" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -1788,12 +1791,12 @@
         <v>11</v>
       </c>
       <c r="D107" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D108" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -1807,12 +1810,12 @@
         <v>135</v>
       </c>
       <c r="D109" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -1820,24 +1823,24 @@
         <v>82</v>
       </c>
       <c r="B111" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C111" t="s">
         <v>63</v>
       </c>
       <c r="D111" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C112" t="s">
         <v>64</v>
       </c>
       <c r="D112" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="113" spans="3:4" x14ac:dyDescent="0.3">
@@ -1845,7 +1848,7 @@
         <v>65</v>
       </c>
       <c r="D113" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="114" spans="3:4" x14ac:dyDescent="0.3">
@@ -1853,7 +1856,7 @@
         <v>66</v>
       </c>
       <c r="D114" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="115" spans="3:4" x14ac:dyDescent="0.3">
@@ -1861,7 +1864,7 @@
         <v>67</v>
       </c>
       <c r="D115" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="116" spans="3:4" x14ac:dyDescent="0.3">
@@ -1869,7 +1872,7 @@
         <v>68</v>
       </c>
       <c r="D116" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="117" spans="3:4" x14ac:dyDescent="0.3">
@@ -1877,7 +1880,7 @@
         <v>69</v>
       </c>
       <c r="D117" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="118" spans="3:4" x14ac:dyDescent="0.3">
@@ -1885,7 +1888,7 @@
         <v>70</v>
       </c>
       <c r="D118" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="119" spans="3:4" x14ac:dyDescent="0.3">
@@ -1893,7 +1896,7 @@
         <v>71</v>
       </c>
       <c r="D119" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="120" spans="3:4" x14ac:dyDescent="0.3">
@@ -1901,7 +1904,7 @@
         <v>72</v>
       </c>
       <c r="D120" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="121" spans="3:4" x14ac:dyDescent="0.3">
@@ -1909,7 +1912,7 @@
         <v>73</v>
       </c>
       <c r="D121" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="122" spans="3:4" x14ac:dyDescent="0.3">
@@ -1917,7 +1920,7 @@
         <v>74</v>
       </c>
       <c r="D122" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="123" spans="3:4" x14ac:dyDescent="0.3">
@@ -1925,7 +1928,7 @@
         <v>75</v>
       </c>
       <c r="D123" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="124" spans="3:4" x14ac:dyDescent="0.3">
@@ -1933,7 +1936,7 @@
         <v>76</v>
       </c>
       <c r="D124" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="125" spans="3:4" x14ac:dyDescent="0.3">
@@ -1941,7 +1944,7 @@
         <v>77</v>
       </c>
       <c r="D125" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="126" spans="3:4" x14ac:dyDescent="0.3">
@@ -1949,7 +1952,7 @@
         <v>78</v>
       </c>
       <c r="D126" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="127" spans="3:4" x14ac:dyDescent="0.3">
@@ -1957,7 +1960,7 @@
         <v>79</v>
       </c>
       <c r="D127" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="128" spans="3:4" x14ac:dyDescent="0.3">
@@ -1965,12 +1968,12 @@
         <v>80</v>
       </c>
       <c r="D128" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D129" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -1984,12 +1987,12 @@
         <v>135</v>
       </c>
       <c r="D130" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D131" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -1997,24 +2000,24 @@
         <v>82</v>
       </c>
       <c r="B132" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C132" t="s">
         <v>90</v>
       </c>
       <c r="D132" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C133" t="s">
         <v>91</v>
       </c>
       <c r="D133" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -2022,7 +2025,7 @@
         <v>92</v>
       </c>
       <c r="D134" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -2030,7 +2033,7 @@
         <v>93</v>
       </c>
       <c r="D135" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -2038,7 +2041,7 @@
         <v>94</v>
       </c>
       <c r="D136" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -2046,7 +2049,7 @@
         <v>95</v>
       </c>
       <c r="D137" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -2054,7 +2057,7 @@
         <v>96</v>
       </c>
       <c r="D138" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -2062,7 +2065,7 @@
         <v>97</v>
       </c>
       <c r="D139" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -2070,7 +2073,7 @@
         <v>98</v>
       </c>
       <c r="D140" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -2078,7 +2081,7 @@
         <v>99</v>
       </c>
       <c r="D141" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -2086,7 +2089,7 @@
         <v>100</v>
       </c>
       <c r="D142" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -2094,7 +2097,7 @@
         <v>101</v>
       </c>
       <c r="D143" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -2102,7 +2105,7 @@
         <v>102</v>
       </c>
       <c r="D144" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -2110,7 +2113,7 @@
         <v>103</v>
       </c>
       <c r="D145" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -2118,7 +2121,7 @@
         <v>104</v>
       </c>
       <c r="D146" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -2126,7 +2129,7 @@
         <v>105</v>
       </c>
       <c r="D147" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -2134,7 +2137,7 @@
         <v>106</v>
       </c>
       <c r="D148" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -2142,7 +2145,7 @@
         <v>107</v>
       </c>
       <c r="D149" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
@@ -2150,7 +2153,7 @@
         <v>108</v>
       </c>
       <c r="D150" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
@@ -2158,7 +2161,7 @@
         <v>109</v>
       </c>
       <c r="D151" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -2166,7 +2169,7 @@
         <v>88</v>
       </c>
       <c r="D152" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -2174,12 +2177,12 @@
         <v>89</v>
       </c>
       <c r="D153" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D154" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
@@ -2193,7 +2196,7 @@
         <v>84</v>
       </c>
       <c r="D155" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
@@ -2201,7 +2204,7 @@
         <v>85</v>
       </c>
       <c r="D156" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
@@ -2209,7 +2212,7 @@
         <v>86</v>
       </c>
       <c r="D157" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
@@ -2217,7 +2220,7 @@
         <v>87</v>
       </c>
       <c r="D158" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
@@ -2225,7 +2228,7 @@
         <v>88</v>
       </c>
       <c r="D159" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
@@ -2233,12 +2236,12 @@
         <v>89</v>
       </c>
       <c r="D160" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="161" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D161" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="163" spans="2:4" x14ac:dyDescent="0.3">
@@ -2249,7 +2252,7 @@
         <v>15</v>
       </c>
       <c r="D163" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="164" spans="2:4" x14ac:dyDescent="0.3">
@@ -2257,7 +2260,7 @@
         <v>16</v>
       </c>
       <c r="D164" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="165" spans="2:4" x14ac:dyDescent="0.3">
@@ -2265,12 +2268,12 @@
         <v>17</v>
       </c>
       <c r="D165" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D166" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="167" spans="2:4" x14ac:dyDescent="0.3">
@@ -2281,7 +2284,7 @@
         <v>18</v>
       </c>
       <c r="D167" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="168" spans="2:4" x14ac:dyDescent="0.3">
@@ -2289,7 +2292,7 @@
         <v>19</v>
       </c>
       <c r="D168" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.3">
@@ -2297,7 +2300,7 @@
         <v>20</v>
       </c>
       <c r="D169" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.3">
@@ -2305,7 +2308,7 @@
         <v>21</v>
       </c>
       <c r="D170" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.3">
@@ -2313,7 +2316,7 @@
         <v>22</v>
       </c>
       <c r="D171" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.3">
@@ -2321,7 +2324,7 @@
         <v>138</v>
       </c>
       <c r="D172" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.3">
@@ -2329,7 +2332,7 @@
         <v>139</v>
       </c>
       <c r="D173" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.3">
@@ -2337,7 +2340,7 @@
         <v>23</v>
       </c>
       <c r="D174" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.3">
@@ -2345,7 +2348,7 @@
         <v>24</v>
       </c>
       <c r="D175" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.3">
@@ -2353,7 +2356,7 @@
         <v>25</v>
       </c>
       <c r="D176" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
@@ -2361,12 +2364,12 @@
         <v>26</v>
       </c>
       <c r="D177" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D178" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="30.15" x14ac:dyDescent="0.3">
@@ -2374,32 +2377,35 @@
         <v>62</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="C179" t="s">
         <v>132</v>
       </c>
       <c r="D179" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B180" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="C180" s="3">
         <v>2</v>
       </c>
       <c r="D180" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B181" t="s">
+        <v>156</v>
+      </c>
       <c r="C181" s="3">
         <v>3</v>
       </c>
       <c r="D181" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
@@ -2407,7 +2413,7 @@
         <v>4</v>
       </c>
       <c r="D182" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
@@ -2415,7 +2421,7 @@
         <v>5</v>
       </c>
       <c r="D183" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
@@ -2423,7 +2429,7 @@
         <v>6</v>
       </c>
       <c r="D184" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
@@ -2431,7 +2437,7 @@
         <v>7</v>
       </c>
       <c r="D185" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
@@ -2439,7 +2445,7 @@
         <v>8</v>
       </c>
       <c r="D186" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
@@ -2447,7 +2453,7 @@
         <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
@@ -2455,7 +2461,7 @@
         <v>133</v>
       </c>
       <c r="D188" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
@@ -2463,7 +2469,7 @@
         <v>134</v>
       </c>
       <c r="D189" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
@@ -2471,7 +2477,7 @@
         <v>26</v>
       </c>
       <c r="D190" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/data/background_vars.xlsx
+++ b/data/background_vars.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julio\Dropbox\01 Fondecyt cultura tributaria\taxes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABE2033-FC64-45D1-A3B8-6D4C1A009911}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E5DF82-AB77-4A14-94E3-C0E3BF4770F3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="475" windowWidth="26301" windowHeight="14305" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="475" windowWidth="26301" windowHeight="14305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="backvars" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="188">
   <si>
     <t>Registre Sexo</t>
   </si>
@@ -115,50 +115,6 @@
     <t>99 No contesta</t>
   </si>
   <si>
-    <t>2 Trabaja media jornada</t>
-  </si>
-  <si>
-    <t>3   Hace  trabajos   ocasionales,  trabaja
-menos que media jornada</t>
-  </si>
-  <si>
-    <t>4 Trabaja ayudando a un miembro de su
-familia</t>
-  </si>
-  <si>
-    <t>6 Está buscando trabajo por primera vez</t>
-  </si>
-  <si>
-    <t>7 Estudiante</t>
-  </si>
-  <si>
-    <t>9 Quehaceres del hogar / dueña de casa</t>
-  </si>
-  <si>
-    <t>11 Otros que no trabajan</t>
-  </si>
-  <si>
-    <t>1 Trabaja tiempo completo</t>
-  </si>
-  <si>
-    <t>5   Está  desempleado,  está   buscando trabajo</t>
-  </si>
-  <si>
-    <t>8  Jubilado,    retirado,     pensionado, montepiado</t>
-  </si>
-  <si>
-    <t>1. 1 hora</t>
-  </si>
-  <si>
-    <t>96. 96 horas y más</t>
-  </si>
-  <si>
-    <t>97. Rechaza</t>
-  </si>
-  <si>
-    <t>98. No sabe, varía</t>
-  </si>
-  <si>
     <t>var</t>
   </si>
   <si>
@@ -168,44 +124,6 @@
     <t>notes</t>
   </si>
   <si>
-    <t>8 No sabe</t>
-  </si>
-  <si>
-    <t>2  Está empleado  en  una  empresa  del
-Estado</t>
-  </si>
-  <si>
-    <t>4 Trabaja en forma independiente, Ud.
-es su propio empleador, o Ud. se emplea a si mismo</t>
-  </si>
-  <si>
-    <t>9995. No hay empleados</t>
-  </si>
-  <si>
-    <t>9999. No contesta</t>
-  </si>
-  <si>
-    <t>1 Sí, actualmente es miembro</t>
-  </si>
-  <si>
-    <t>2 Si, en el pasado</t>
-  </si>
-  <si>
-    <t>3 No</t>
-  </si>
-  <si>
-    <t>88 No contesta</t>
-  </si>
-  <si>
-    <t>99. No tiene esposo/a o pareja</t>
-  </si>
-  <si>
-    <t>8 Jubilado,    retirado,     pensionado, montepiado</t>
-  </si>
-  <si>
-    <t>3  Trabaja  como   empleado   en   una empresa privada</t>
-  </si>
-  <si>
     <t>fuente</t>
   </si>
   <si>
@@ -443,9 +361,6 @@
     <t>6  Educación superior  no  universitaria completa</t>
   </si>
   <si>
-    <t>10   Permanentemente    impedido/a   o discapacitado/a</t>
-  </si>
-  <si>
     <t>¿Ud. convive, es decir, vive habitualmente con una pareja?</t>
   </si>
   <si>
@@ -455,36 +370,6 @@
     <t>Sin tomar en cuenta las repeticiones de cursos, ¿cuál es su nivel educacional?</t>
   </si>
   <si>
-    <t>Escoja una de las siguientes alternativas, en función de si trabaja o no trabaja</t>
-  </si>
-  <si>
-    <t>Generalmente, ¿cuántas horas trabaja Ud. a la semana?</t>
-  </si>
-  <si>
-    <t>¿Cuál es su actividad principal? ¿Cuáles son/eran algunas de sus principales funciones?</t>
-  </si>
-  <si>
-    <t>En su trabajo, ¿Ud. Supervisa o es responsable por el trabajo de otra gente?</t>
-  </si>
-  <si>
-    <t>¿Cuántos empleados hay en su empresa?</t>
-  </si>
-  <si>
-    <t>¿Es o fue Ud. Miembro de algún sindicato de trabajadores?</t>
-  </si>
-  <si>
-    <t>Con relación a su esposo/a o pareja, escoja una de las siguientes alternativas, en función de si trabaja o no trabaja</t>
-  </si>
-  <si>
-    <t>¿Cuál es la actividad principal de su esposo/a o pareja? ¿Cuáles son/eran algunas de sus principales funciones?</t>
-  </si>
-  <si>
-    <t>Escoja una de las siguientes alternativas dependiendo si su esposo/a o pareja trabaja en el sector público o en el privado.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descripción de ocupación (ISCO88)    </t>
-  </si>
-  <si>
     <t>Número de personas</t>
   </si>
   <si>
@@ -503,205 +388,214 @@
     <t>es decir, su ingreso después de descuentos de impuestos, salud,previsión y otros?</t>
   </si>
   <si>
-    <t>5 Está  desempleado,  está   buscando trabajo</t>
-  </si>
-  <si>
-    <t>10 Permanentemente    impedido/a   o discapacitado/a</t>
-  </si>
-  <si>
     <t>sociodemografico</t>
   </si>
   <si>
+    <t>socioeconomico</t>
+  </si>
+  <si>
+    <t>¿Cuál  es   su   estado   civil  o conyugal actual?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En nuestra sociedad hay grupos que tienden a ubicarse en los niveles más altos y grupos que tienden a ubicarse en los </t>
+  </si>
+  <si>
+    <t xml:space="preserve">niveles más bajos.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambiando  de tema, tradicionalmente en nuestro  país la gente  define  las posiciones  políticas  como  más  cercanas  a la izquierda, al centro o a la derecha. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usando una escala de 0 a 10 donde 0 es ser de “izquierda”, 5 es ser de “centro”  y 10 es ser de “derecha”, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Dónde  se ubicaría usted en esta escala? Indique el número que más le acomode. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0. Izquierda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Centro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10. Derecha </t>
+  </si>
+  <si>
+    <t>orientacion-politica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Empleado u obrero en empresa privada </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Empleado u obrero del sector público (incluso empresa pública o municipalidad) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Trabaja solo, no tiene empleados </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Familiar no remunerado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Servicio doméstico </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-888. No sabe (no leer)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-999. No responde (no leer) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Patrón/a o empleador/a (contrata o paga a honorarios a uno o más trabajadores) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">En su actual ocupación, usted trabaja como: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Miembro de las Fuerzas Armadas y de Orden </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como parte de su trabajo, ¿Ud. supervisa el trabajo de otros empleados o les dice a otros que trabajo tienen que hacer? </t>
+  </si>
+  <si>
+    <t>ENETS</t>
+  </si>
+  <si>
+    <t>2.- No</t>
+  </si>
+  <si>
+    <t>A. Para contratar o despedir trabajadores?</t>
+  </si>
+  <si>
+    <t>B. Para cambiar los  bienes producidos o los servicios que presta su empresa u organización?</t>
+  </si>
+  <si>
+    <t>C. Para proponer cambios en la forma de organizar el trabajo?</t>
+  </si>
+  <si>
+    <t>D. Acerca del presupuesto?</t>
+  </si>
+  <si>
+    <t>1.- Sí, Siempre</t>
+  </si>
+  <si>
+    <t>2.- Sí, A veces</t>
+  </si>
+  <si>
+    <t>3.- No, Nunca</t>
+  </si>
+  <si>
+    <t>En su trabajo, ¿Ud. está personalmente involucrado o al menos le consultan, acerca de la toma de decisiones?. Para cada una responda.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dentro de la empresa u organización donde Ud. trabaja, ¿qué frase describe mejor la posición que tiene Ud.? </t>
+  </si>
+  <si>
+    <t>1.- Una posición directiva o de gerente</t>
+  </si>
+  <si>
+    <t>3.- Una posición subordinada (tiene un jefe y no tiene personas a cargo)</t>
+  </si>
+  <si>
+    <t>1.- Sí -&gt;  ¿A cuántas personas?</t>
+  </si>
+  <si>
+    <t>En su trabajo, ¿a cuántas personas supervisa usted? (Anote el número de personas. Si no supervisa, anote “0”.)</t>
+  </si>
+  <si>
+    <t>Número de personas que supervisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ¿Cuál es su ocupación u oficio actual? Describa sus principales tareas y funciones en el puesto de trabajo actual.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Estudia y trabaja </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Trabaja de manera remunerada con jornada completa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Trabaja de manera remunerada a tiempo parcial o hace trabajos ocasionales </t>
+  </si>
+  <si>
+    <t>5. Jubilado o pensionado</t>
+  </si>
+  <si>
+    <t>4. Sólo estudia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Desempleado, buscando trabajo </t>
+  </si>
+  <si>
+    <t>7. Realiza tareas no remuneradas (que haceres del hogar, cuidando niños y otras personas)</t>
+  </si>
+  <si>
+    <t>8. Está enfermo o tiene una discapacidad</t>
+  </si>
+  <si>
+    <t>9. No estudia, no trabaja y no busca trabajo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ¿Cuál de estas situaciones describe mejor su actividad principal durante el último mes? </t>
+  </si>
+  <si>
+    <t>En su trabajo, ¿Usted es….? (A5)</t>
+  </si>
+  <si>
+    <t>¿Cuántos empleados trabajan directamente para su empresa o negocio? (A6)</t>
+  </si>
+  <si>
+    <t>3.- Trabajador dependiente o asalariado</t>
+  </si>
+  <si>
+    <t>4.- Servicio Doméstico puertas adentro</t>
+  </si>
+  <si>
+    <t>5.- Servicio Doméstico puertas afuera</t>
+  </si>
+  <si>
+    <t>6.- Familiar No Remunerado</t>
+  </si>
+  <si>
+    <t>1.- Patrón o empleador (dueño o socio) -&gt; Pase a A6</t>
+  </si>
+  <si>
+    <t>2.- Trabajador por cuenta propia -&gt; Pase a A6</t>
+  </si>
+  <si>
+    <t>Señale número de empleados. En caso de encuestado A5=2 responda que tiene empleados en su empresa o negocio, se debe reclasificar al encuestado como A5=1</t>
+  </si>
+  <si>
+    <t>2.- Mandos medios, jefe, capataz, supervisor (con responsabilidad de jefatura y dirección, pero depende de otra jefatura)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANOTAR LO QUE CONTESTE EL/LA ENTREVISTADO/A Y PEDIR QUE PROFUNDICE SI LA RESPUESTA ES MUY GENERAL. </t>
+  </si>
+  <si>
     <t>laboral-ocupacional</t>
-  </si>
-  <si>
-    <t>1 Está empleado en el gobierno o en la  administración pública</t>
-  </si>
-  <si>
-    <t>socioeconomico</t>
-  </si>
-  <si>
-    <t>¿Cuál  es   su   estado   civil  o conyugal actual?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En nuestra sociedad hay grupos que tienden a ubicarse en los niveles más altos y grupos que tienden a ubicarse en los </t>
-  </si>
-  <si>
-    <t xml:space="preserve">niveles más bajos.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambiando  de tema, tradicionalmente en nuestro  país la gente  define  las posiciones  políticas  como  más  cercanas  a la izquierda, al centro o a la derecha. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usando una escala de 0 a 10 donde 0 es ser de “izquierda”, 5 es ser de “centro”  y 10 es ser de “derecha”, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Dónde  se ubicaría usted en esta escala? Indique el número que más le acomode. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0. Izquierda </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5. Centro </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10. Derecha </t>
-  </si>
-  <si>
-    <t>orientacion-politica</t>
-  </si>
-  <si>
-    <t>3 Hace trabajos ocasionales,  trabaja menos que media jornada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En su actual ocupación, usted trabaja como:	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Empleado u obrero en empresa privada </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Empleado u obrero del sector público (incluso empresa pública o municipalidad) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5. Trabaja solo, no tiene empleados </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6. Familiar no remunerado </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7. Servicio doméstico </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-888. No sabe (no leer)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-999. No responde (no leer) </t>
-  </si>
-  <si>
-    <t>3. Miembro de las Fuerzas Armadas y de Orden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. Patrón/a o empleador/a (contrata o paga a honorarios a uno o más trabajadores) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">En su actual ocupación, usted trabaja como: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. Miembro de las Fuerzas Armadas y de Orden </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Como parte de su trabajo, ¿Ud. supervisa el trabajo de otros empleados o les dice a otros que trabajo tienen que hacer? </t>
-  </si>
-  <si>
-    <t>ENETS</t>
-  </si>
-  <si>
-    <t>2.- No</t>
-  </si>
-  <si>
-    <t>A. Para contratar o despedir trabajadores?</t>
-  </si>
-  <si>
-    <t>B. Para cambiar los  bienes producidos o los servicios que presta su empresa u organización?</t>
-  </si>
-  <si>
-    <t>C. Para proponer cambios en la forma de organizar el trabajo?</t>
-  </si>
-  <si>
-    <t>D. Acerca del presupuesto?</t>
-  </si>
-  <si>
-    <t>1.- Sí, Siempre</t>
-  </si>
-  <si>
-    <t>2.- Sí, A veces</t>
-  </si>
-  <si>
-    <t>3.- No, Nunca</t>
-  </si>
-  <si>
-    <t>En su trabajo, ¿Ud. está personalmente involucrado o al menos le consultan, acerca de la toma de decisiones?. Para cada una responda.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dentro de la empresa u organización donde Ud. trabaja, ¿qué frase describe mejor la posición que tiene Ud.? </t>
-  </si>
-  <si>
-    <t>1.- Una posición directiva o de gerente</t>
-  </si>
-  <si>
-    <t>2.- Mandos medios, jefe, capataz, supervisor ( con responsabilidad de jefatura y dirección, pero depende de otra jefatura)</t>
-  </si>
-  <si>
-    <t>3.- Una posición subordinada (tiene un jefe y no tiene personas a cargo)</t>
-  </si>
-  <si>
-    <t>1.- Sí -&gt;  ¿A cuántas personas?</t>
-  </si>
-  <si>
-    <t>En su trabajo, ¿a cuántas personas supervisa usted? (Anote el número de personas. Si no supervisa, anote “0”.)</t>
-  </si>
-  <si>
-    <t>Número de personas que supervisa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ¿Cuál es su ocupación u oficio actual? Describa sus principales tareas y funciones en el puesto de trabajo actual.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. Estudia y trabaja </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Trabaja de manera remunerada con jornada completa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Trabaja de manera remunerada a tiempo parcial o hace trabajos ocasionales </t>
-  </si>
-  <si>
-    <t>5. Jubilado o pensionado</t>
-  </si>
-  <si>
-    <t>4. Sólo estudia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6. Desempleado, buscando trabajo </t>
-  </si>
-  <si>
-    <t>7. Realiza tareas no remuneradas (que haceres del hogar, cuidando niños y otras personas)</t>
-  </si>
-  <si>
-    <t>8. Está enfermo o tiene una discapacidad</t>
-  </si>
-  <si>
-    <t>9. No estudia, no trabaja y no busca trabajo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANOTAR LO QUE CONTESTE EL/LA ENTREVISTADO/A Y PEDIR QUE PROFUNDICE  SI LA RESPUESTA ES MUY GENERAL. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ¿Cuál de estas situaciones describe mejor su actividad principal durante el último mes? </t>
   </si>
 </sst>
 </file>
@@ -1029,10 +923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D206"/>
+  <dimension ref="A1:D186"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A158" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D176" sqref="D176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1046,26 +940,26 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -1074,7 +968,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1082,34 +976,34 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="D6" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="D7" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1117,26 +1011,26 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1144,7 +1038,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1152,7 +1046,7 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1160,7 +1054,7 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1168,7 +1062,7 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1176,7 +1070,7 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1184,26 +1078,26 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1211,7 +1105,7 @@
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1219,1562 +1113,1413 @@
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="D22" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D23" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="D25" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="D26" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="D27" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="D28" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="D29" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="D30" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C32" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="D32" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="D33" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="D34" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="D35" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="D36" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="D37" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="D38" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="D39" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="D40" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="D42" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
       <c r="D43" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>139</v>
+        <v>50</v>
       </c>
       <c r="C44" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
         <v>34</v>
       </c>
-      <c r="D44" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
-        <v>27</v>
-      </c>
-      <c r="D45" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C46" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D46" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
-        <v>29</v>
-      </c>
-      <c r="D47" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C48" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="D48" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D49" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D50" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C51" s="1" t="s">
-        <v>36</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>37</v>
       </c>
       <c r="D51" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D52" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="D53" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D54" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D55" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>42</v>
+      </c>
       <c r="D56" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>140</v>
-      </c>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D57" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4" ht="15.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D58" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D59" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D60" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="D61" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>48</v>
+      </c>
       <c r="D62" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>57</v>
-      </c>
-      <c r="B63" t="s">
-        <v>141</v>
-      </c>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>148</v>
+        <v>49</v>
       </c>
       <c r="D63" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B65" t="s">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="C65" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="D65" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
-        <v>13</v>
-      </c>
       <c r="D66" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>51</v>
+      </c>
+      <c r="B67" t="s">
+        <v>114</v>
+      </c>
       <c r="C67" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D67" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>115</v>
+      </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="D68" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>61</v>
+      </c>
       <c r="D69" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>77</v>
-      </c>
-      <c r="B70" t="s">
-        <v>180</v>
-      </c>
       <c r="C70" t="s">
-        <v>181</v>
+        <v>62</v>
       </c>
       <c r="D70" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
-        <v>182</v>
+        <v>63</v>
       </c>
       <c r="D71" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
-        <v>188</v>
+        <v>64</v>
       </c>
       <c r="D72" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>189</v>
+        <v>65</v>
       </c>
       <c r="D73" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="D74" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
-        <v>184</v>
+        <v>67</v>
       </c>
       <c r="D75" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="D76" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="D77" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
-        <v>187</v>
+        <v>70</v>
       </c>
       <c r="D78" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>71</v>
+      </c>
       <c r="D79" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>57</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C80" s="3">
-        <v>1</v>
+      <c r="C80" t="s">
+        <v>72</v>
       </c>
       <c r="D80" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C81" s="3">
-        <v>1000</v>
+      <c r="C81" t="s">
+        <v>73</v>
       </c>
       <c r="D81" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C82" s="3" t="s">
-        <v>47</v>
+      <c r="C82" t="s">
+        <v>74</v>
       </c>
       <c r="D82" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C83" s="3" t="s">
-        <v>48</v>
+      <c r="C83" t="s">
+        <v>75</v>
       </c>
       <c r="D83" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C84" s="3"/>
+      <c r="C84" t="s">
+        <v>76</v>
+      </c>
       <c r="D84" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>57</v>
-      </c>
-      <c r="B85" t="s">
-        <v>144</v>
-      </c>
       <c r="C85" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="D85" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="D86" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D87" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D88" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C89" t="s">
-        <v>14</v>
-      </c>
       <c r="D89" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>51</v>
+      </c>
+      <c r="B90" t="s">
+        <v>52</v>
+      </c>
+      <c r="C90" t="s">
+        <v>53</v>
+      </c>
       <c r="D90" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>57</v>
-      </c>
-      <c r="B91" t="s">
-        <v>145</v>
-      </c>
       <c r="C91" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="D91" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="D92" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="D93" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="D94" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="D95" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C96" t="s">
-        <v>30</v>
-      </c>
       <c r="D96" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C97" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>110</v>
+      </c>
+      <c r="C98" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>111</v>
+      </c>
+      <c r="C102" t="s">
+        <v>18</v>
+      </c>
+      <c r="D102" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
+        <v>19</v>
+      </c>
+      <c r="D103" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C104" t="s">
+        <v>20</v>
+      </c>
+      <c r="D104" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
+        <v>21</v>
+      </c>
+      <c r="D105" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
+        <v>22</v>
+      </c>
+      <c r="D106" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C107" t="s">
+        <v>107</v>
+      </c>
+      <c r="D107" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
+        <v>108</v>
+      </c>
+      <c r="D108" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
+        <v>23</v>
+      </c>
+      <c r="D109" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C110" t="s">
+        <v>24</v>
+      </c>
+      <c r="D110" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
+        <v>25</v>
+      </c>
+      <c r="D111" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
+        <v>26</v>
+      </c>
+      <c r="D112" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>31</v>
       </c>
-      <c r="D97" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C98" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D98" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C99" t="s">
-        <v>32</v>
-      </c>
-      <c r="D99" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C100" t="s">
-        <v>135</v>
-      </c>
-      <c r="D100" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C101" t="s">
-        <v>33</v>
-      </c>
-      <c r="D101" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C102" t="s">
-        <v>52</v>
-      </c>
-      <c r="D102" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C103" t="s">
-        <v>53</v>
-      </c>
-      <c r="D103" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D104" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>57</v>
-      </c>
-      <c r="B105" t="s">
-        <v>146</v>
-      </c>
-      <c r="C105" t="s">
-        <v>148</v>
-      </c>
-      <c r="D105" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D106" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>57</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C107" t="s">
-        <v>159</v>
-      </c>
-      <c r="D107" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C108" t="s">
-        <v>45</v>
-      </c>
-      <c r="D108" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C109" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D109" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C110" t="s">
-        <v>46</v>
-      </c>
-      <c r="D110" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C111" t="s">
-        <v>11</v>
-      </c>
-      <c r="D111" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D112" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>77</v>
-      </c>
-      <c r="B113" t="s">
-        <v>76</v>
-      </c>
-      <c r="C113" t="s">
-        <v>130</v>
-      </c>
-      <c r="D113" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B114" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C114" t="s">
+        <v>101</v>
+      </c>
       <c r="D114" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>77</v>
-      </c>
       <c r="B115" t="s">
-        <v>153</v>
-      </c>
-      <c r="C115" t="s">
-        <v>58</v>
+        <v>122</v>
+      </c>
+      <c r="C115" s="3">
+        <v>2</v>
       </c>
       <c r="D115" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>154</v>
-      </c>
-      <c r="C116" t="s">
-        <v>59</v>
+        <v>113</v>
+      </c>
+      <c r="C116" s="3">
+        <v>3</v>
       </c>
       <c r="D116" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C117" t="s">
-        <v>60</v>
+      <c r="C117" s="3">
+        <v>4</v>
       </c>
       <c r="D117" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C118" t="s">
-        <v>61</v>
+      <c r="C118" s="3">
+        <v>5</v>
       </c>
       <c r="D118" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C119" t="s">
-        <v>62</v>
+      <c r="C119" s="3">
+        <v>6</v>
       </c>
       <c r="D119" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C120" t="s">
-        <v>63</v>
+      <c r="C120" s="3">
+        <v>7</v>
       </c>
       <c r="D120" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C121" t="s">
-        <v>64</v>
+      <c r="C121" s="3">
+        <v>8</v>
       </c>
       <c r="D121" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C122" t="s">
-        <v>65</v>
+      <c r="C122" s="3">
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C123" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="D123" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C124" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="D124" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C125" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="D125" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C126" t="s">
-        <v>69</v>
-      </c>
-      <c r="D126" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>51</v>
+      </c>
+      <c r="B127" t="s">
+        <v>123</v>
+      </c>
       <c r="C127" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="D127" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>124</v>
+      </c>
       <c r="C128" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="D128" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>125</v>
+      </c>
       <c r="C129" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="D129" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C130" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="D130" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C131" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="D131" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C132" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="D132" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C133" t="s">
+        <v>132</v>
+      </c>
       <c r="D133" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>77</v>
-      </c>
-      <c r="B134" t="s">
-        <v>105</v>
-      </c>
       <c r="C134" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D134" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C135" t="s">
+        <v>134</v>
+      </c>
       <c r="D135" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>77</v>
-      </c>
-      <c r="B136" t="s">
-        <v>151</v>
-      </c>
       <c r="C136" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="D136" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B137" t="s">
-        <v>152</v>
-      </c>
       <c r="C137" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="D137" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C138" t="s">
-        <v>87</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>51</v>
+      </c>
+      <c r="B138" t="s">
+        <v>165</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="D138" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C139" t="s">
-        <v>88</v>
-      </c>
       <c r="D139" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>51</v>
+      </c>
+      <c r="B140" t="s">
+        <v>175</v>
+      </c>
       <c r="C140" t="s">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="D140" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C141" t="s">
-        <v>90</v>
+      <c r="C141" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="D141" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C142" t="s">
-        <v>91</v>
+      <c r="C142" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="D142" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C143" t="s">
-        <v>92</v>
+        <v>170</v>
       </c>
       <c r="D143" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C144" t="s">
-        <v>93</v>
+        <v>169</v>
       </c>
       <c r="D144" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C145" t="s">
-        <v>94</v>
+      <c r="C145" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="D145" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C146" t="s">
-        <v>95</v>
+        <v>172</v>
       </c>
       <c r="D146" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C147" t="s">
-        <v>96</v>
+        <v>173</v>
       </c>
       <c r="D147" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C148" t="s">
-        <v>97</v>
+        <v>174</v>
       </c>
       <c r="D148" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C149" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="D149" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C150" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="D150" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C151" t="s">
-        <v>100</v>
-      </c>
       <c r="D151" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>51</v>
+      </c>
+      <c r="B152" t="s">
+        <v>146</v>
+      </c>
       <c r="C152" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="D152" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C153" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="D153" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C154" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="D154" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C155" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="D155" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C156" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="D156" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C157" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="D157" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C158" t="s">
+        <v>142</v>
+      </c>
       <c r="D158" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>77</v>
-      </c>
-      <c r="B159" t="s">
-        <v>78</v>
-      </c>
       <c r="C159" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="D159" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C160" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="D160" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D161" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>51</v>
+      </c>
+      <c r="B162" t="s">
+        <v>163</v>
+      </c>
+      <c r="C162" t="s">
+        <v>164</v>
+      </c>
+      <c r="D162" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D163" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>149</v>
+      </c>
+      <c r="B164" t="s">
+        <v>176</v>
+      </c>
+      <c r="C164" t="s">
+        <v>182</v>
+      </c>
+      <c r="D164" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C165" t="s">
+        <v>183</v>
+      </c>
+      <c r="D165" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C166" t="s">
+        <v>178</v>
+      </c>
+      <c r="D166" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C167" t="s">
+        <v>179</v>
+      </c>
+      <c r="D167" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C168" t="s">
+        <v>180</v>
+      </c>
+      <c r="D168" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C169" t="s">
+        <v>181</v>
+      </c>
+      <c r="D169" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D170" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>149</v>
+      </c>
+      <c r="B171" t="s">
+        <v>177</v>
+      </c>
+      <c r="C171" t="s">
+        <v>184</v>
+      </c>
+      <c r="D171" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D172" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>149</v>
+      </c>
+      <c r="B173" t="s">
+        <v>148</v>
+      </c>
+      <c r="C173" t="s">
+        <v>162</v>
+      </c>
+      <c r="D173" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C174" t="s">
+        <v>150</v>
+      </c>
+      <c r="D174" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C175" t="s">
+        <v>143</v>
+      </c>
+      <c r="D175" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C176" t="s">
+        <v>144</v>
+      </c>
+      <c r="D176" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D177" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>149</v>
+      </c>
+      <c r="B178" t="s">
+        <v>158</v>
+      </c>
+      <c r="C178" t="s">
+        <v>155</v>
+      </c>
+      <c r="D178" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B179" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C179" t="s">
+        <v>156</v>
+      </c>
+      <c r="D179" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B180" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C180" t="s">
+        <v>157</v>
+      </c>
+      <c r="D180" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B181" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C181" t="s">
+        <v>143</v>
+      </c>
+      <c r="D181" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B182" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C182" t="s">
+        <v>144</v>
+      </c>
+      <c r="D182" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D183" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>149</v>
+      </c>
+      <c r="B184" t="s">
+        <v>159</v>
+      </c>
+      <c r="C184" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C161" t="s">
-        <v>81</v>
-      </c>
-      <c r="D161" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C162" t="s">
-        <v>82</v>
-      </c>
-      <c r="D162" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C163" t="s">
-        <v>83</v>
-      </c>
-      <c r="D163" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C164" t="s">
-        <v>84</v>
-      </c>
-      <c r="D164" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D165" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B167" t="s">
-        <v>137</v>
-      </c>
-      <c r="C167" t="s">
-        <v>15</v>
-      </c>
-      <c r="D167" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C168" t="s">
-        <v>16</v>
-      </c>
-      <c r="D168" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C169" t="s">
-        <v>17</v>
-      </c>
-      <c r="D169" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D170" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B171" t="s">
-        <v>138</v>
-      </c>
-      <c r="C171" t="s">
-        <v>18</v>
-      </c>
-      <c r="D171" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C172" t="s">
-        <v>19</v>
-      </c>
-      <c r="D172" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C173" t="s">
-        <v>20</v>
-      </c>
-      <c r="D173" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C174" t="s">
-        <v>21</v>
-      </c>
-      <c r="D174" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C175" t="s">
-        <v>22</v>
-      </c>
-      <c r="D175" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C176" t="s">
-        <v>133</v>
-      </c>
-      <c r="D176" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C177" t="s">
-        <v>134</v>
-      </c>
-      <c r="D177" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C178" t="s">
-        <v>23</v>
-      </c>
-      <c r="D178" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C179" t="s">
-        <v>24</v>
-      </c>
-      <c r="D179" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C180" t="s">
-        <v>25</v>
-      </c>
-      <c r="D180" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C181" t="s">
-        <v>26</v>
-      </c>
-      <c r="D181" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D182" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>57</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C183" t="s">
-        <v>127</v>
-      </c>
-      <c r="D183" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B184" t="s">
-        <v>163</v>
-      </c>
-      <c r="C184" s="3">
-        <v>2</v>
-      </c>
       <c r="D184" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B185" t="s">
-        <v>150</v>
-      </c>
-      <c r="C185" s="3">
-        <v>3</v>
+      <c r="C185" t="s">
+        <v>185</v>
       </c>
       <c r="D185" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C186" s="3">
-        <v>4</v>
+      <c r="C186" t="s">
+        <v>161</v>
       </c>
       <c r="D186" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C187" s="3">
-        <v>5</v>
-      </c>
-      <c r="D187" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C188" s="3">
-        <v>6</v>
-      </c>
-      <c r="D188" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C189" s="3">
-        <v>7</v>
-      </c>
-      <c r="D189" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C190" s="3">
-        <v>8</v>
-      </c>
-      <c r="D190" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C191" s="3">
-        <v>9</v>
-      </c>
-      <c r="D191" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C192" t="s">
-        <v>128</v>
-      </c>
-      <c r="D192" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C193" t="s">
-        <v>129</v>
-      </c>
-      <c r="D193" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C194" t="s">
-        <v>26</v>
-      </c>
-      <c r="D194" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>77</v>
-      </c>
-      <c r="B196" t="s">
-        <v>164</v>
-      </c>
-      <c r="C196" t="s">
-        <v>167</v>
-      </c>
-      <c r="D196" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B197" t="s">
-        <v>165</v>
-      </c>
-      <c r="C197" t="s">
-        <v>168</v>
-      </c>
-      <c r="D197" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B198" t="s">
-        <v>166</v>
-      </c>
-      <c r="C198" t="s">
-        <v>169</v>
-      </c>
-      <c r="D198" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C199" t="s">
-        <v>170</v>
-      </c>
-      <c r="D199" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C200" t="s">
-        <v>171</v>
-      </c>
-      <c r="D200" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C201" t="s">
-        <v>172</v>
-      </c>
-      <c r="D201" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C202" t="s">
-        <v>173</v>
-      </c>
-      <c r="D202" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C203" t="s">
-        <v>174</v>
-      </c>
-      <c r="D203" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C204" t="s">
-        <v>175</v>
-      </c>
-      <c r="D204" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C205" t="s">
-        <v>176</v>
-      </c>
-      <c r="D205" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C206" t="s">
-        <v>177</v>
-      </c>
-      <c r="D206" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2785,10 +2530,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A72ED805-2FF0-41CC-8CA3-41C41B00B881}">
-  <dimension ref="A2:C41"/>
+  <dimension ref="A2:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C50" sqref="A2:C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2799,226 +2544,273 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>221</v>
+        <v>175</v>
       </c>
       <c r="C4" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
-        <v>216</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>218</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>186</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="C16" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>185</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>186</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="C26" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="B28" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="C28" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>187</v>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>193</v>
-      </c>
-      <c r="B33" t="s">
-        <v>202</v>
-      </c>
       <c r="C33" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C34" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="3" t="s">
-        <v>196</v>
+      <c r="A35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B35" t="s">
+        <v>177</v>
       </c>
       <c r="C35" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C36" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="3" t="s">
-        <v>198</v>
+      <c r="A37" t="s">
+        <v>149</v>
+      </c>
+      <c r="B37" t="s">
+        <v>148</v>
       </c>
       <c r="C37" t="s">
-        <v>187</v>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>193</v>
-      </c>
-      <c r="B39" t="s">
-        <v>203</v>
-      </c>
       <c r="C39" t="s">
-        <v>204</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
-        <v>206</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>149</v>
+      </c>
+      <c r="B42" t="s">
+        <v>158</v>
+      </c>
+      <c r="C42" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C43" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C45" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C46" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>149</v>
+      </c>
+      <c r="B48" t="s">
+        <v>159</v>
+      </c>
+      <c r="C48" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
